--- a/IntelligentProcessAutomationNLP/Automation/intencoes.xlsx
+++ b/IntelligentProcessAutomationNLP/Automation/intencoes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupecgi-my.sharepoint.com/personal/brunofilipe_lobo_cgi_com/Documents/Code/realvidaseguros/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupecgi-my.sharepoint.com/personal/brunofilipe_lobo_cgi_com/Documents/Code/realvidaseguros/IntelligentProcessAutomationNLP/Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B364C3-1C7B-47BE-BE56-8461E9385117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{B4B189BC-61F7-41C8-AD90-3CA3DB88E80F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4B189BC-61F7-41C8-AD90-3CA3DB88E80F}"/>
   </bookViews>
   <sheets>
     <sheet name="IdentifEntidade" sheetId="1" r:id="rId1"/>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AB1680-6FDB-4AAC-84B1-7D0AFBC3FE74}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC837E5-2679-46E3-8AD8-11CE1BD38E93}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/IntelligentProcessAutomationNLP/Automation/intencoes.xlsx
+++ b/IntelligentProcessAutomationNLP/Automation/intencoes.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupecgi-my.sharepoint.com/personal/brunofilipe_lobo_cgi_com/Documents/Code/realvidaseguros/IntelligentProcessAutomationNLP/Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B364C3-1C7B-47BE-BE56-8461E9385117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{92B364C3-1C7B-47BE-BE56-8461E9385117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A47E316C-1C4D-43B7-B90F-2C0134882AF0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4B189BC-61F7-41C8-AD90-3CA3DB88E80F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{B4B189BC-61F7-41C8-AD90-3CA3DB88E80F}"/>
   </bookViews>
   <sheets>
-    <sheet name="IdentifEntidade" sheetId="1" r:id="rId1"/>
-    <sheet name="IdentifAlternativa" sheetId="2" r:id="rId2"/>
-    <sheet name="ApolAtivas" sheetId="3" r:id="rId3"/>
-    <sheet name="Anexos" sheetId="5" r:id="rId4"/>
+    <sheet name="Anexos" sheetId="5" r:id="rId1"/>
+    <sheet name="IdentifEntidade" sheetId="1" r:id="rId2"/>
+    <sheet name="IdentifAlternativa" sheetId="2" r:id="rId3"/>
+    <sheet name="ApolAtivas" sheetId="3" r:id="rId4"/>
     <sheet name="IDTemplates" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="44">
   <si>
     <t>NA</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Credor Hipotecário</t>
-  </si>
-  <si>
-    <t>Anexos?</t>
   </si>
   <si>
     <t>T;P</t>
@@ -185,6 +182,30 @@
     <t>Exmo(a). Senhor(a),
 Temos presente a mensagem de correio eletrónico, cujo teor mereceu a nossa melhor atenção.
 Em resposta, somos a informar que para abertura de processo de sinistro e respetiva análise, é necessário que nos disponibilize a participação de sinistro, em anexo, integralmente preenchida e devidamente assinada, juntamente com os documentos de apresentação obrigatória mencionados no impresso.</t>
+  </si>
+  <si>
+    <t>Anexos</t>
+  </si>
+  <si>
+    <t>3NA</t>
+  </si>
+  <si>
+    <t>Anexo</t>
+  </si>
+  <si>
+    <t>\\Folder\Ficheiro 1.pdf</t>
+  </si>
+  <si>
+    <t>\\Folder\Ficheiro 2.pdf</t>
+  </si>
+  <si>
+    <t>\\Folder\Ficheiro 3.pdf</t>
+  </si>
+  <si>
+    <t>\\Folder\Ficheiro 4.pdf</t>
+  </si>
+  <si>
+    <t>\\Folder\Ficheiro 5.pdf</t>
   </si>
 </sst>
 </file>
@@ -660,10 +681,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425FF8AC-BB7D-41CF-A3FD-5684B3F073C3}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AB1680-6FDB-4AAC-84B1-7D0AFBC3FE74}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -677,7 +828,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -697,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>0</v>
@@ -714,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -731,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>0</v>
@@ -748,7 +899,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>0</v>
@@ -785,13 +936,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -799,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -816,16 +967,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -850,13 +1001,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>0</v>
@@ -867,13 +1018,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>0</v>
@@ -884,13 +1035,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>0</v>
@@ -901,13 +1052,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>0</v>
@@ -918,7 +1069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517D2584-37BB-4138-832B-A2A9203BD88F}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -934,7 +1085,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -1003,10 +1154,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1091,7 +1242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC837E5-2679-46E3-8AD8-11CE1BD38E93}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -1110,7 +1261,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>5</v>
@@ -1133,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>0</v>
@@ -1199,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1239,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>0</v>
@@ -1279,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>0</v>
@@ -1319,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>0</v>
@@ -1333,10 +1484,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>0</v>
@@ -1353,7 +1504,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>0</v>
@@ -1362,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>0</v>
@@ -1376,146 +1527,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="F14" s="8" t="s">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425FF8AC-BB7D-41CF-A3FD-5684B3F073C3}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1525,124 +1546,166 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59DE66B-4BFE-4DCA-B140-7BD69D8D520A}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/IntelligentProcessAutomationNLP/Automation/intencoes.xlsx
+++ b/IntelligentProcessAutomationNLP/Automation/intencoes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupecgi-my.sharepoint.com/personal/brunofilipe_lobo_cgi_com/Documents/Code/realvidaseguros/IntelligentProcessAutomationNLP/Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{92B364C3-1C7B-47BE-BE56-8461E9385117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A47E316C-1C4D-43B7-B90F-2C0134882AF0}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{92B364C3-1C7B-47BE-BE56-8461E9385117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FB4640F-7988-4F32-AF25-39A62DAC19C2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{B4B189BC-61F7-41C8-AD90-3CA3DB88E80F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B4B189BC-61F7-41C8-AD90-3CA3DB88E80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Anexos" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="IdentifAlternativa" sheetId="2" r:id="rId3"/>
     <sheet name="ApolAtivas" sheetId="3" r:id="rId4"/>
     <sheet name="IDTemplates" sheetId="4" r:id="rId5"/>
+    <sheet name="label_map" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="59">
   <si>
     <t>NA</t>
   </si>
@@ -206,6 +207,51 @@
   </si>
   <si>
     <t>\\Folder\Ficheiro 5.pdf</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Reforços apólices financeiras</t>
+  </si>
+  <si>
+    <t>Atualização dados pessoais A</t>
+  </si>
+  <si>
+    <t>Atualização dados pessoais B</t>
+  </si>
+  <si>
+    <t>Atualização de capital da apólice</t>
+  </si>
+  <si>
+    <t>Pedido de informação da apólice</t>
+  </si>
+  <si>
+    <t>Não usado (DEIXAR NA MESMA)</t>
+  </si>
+  <si>
+    <t>Pedido de resgate de apólice financeira</t>
+  </si>
+  <si>
+    <t>Acesso à Área Reservada de Clientes (MyRealVida)</t>
+  </si>
+  <si>
+    <t>Alteração de IBAN de débito</t>
+  </si>
+  <si>
+    <t>Pedido de anulação de apólices Universo</t>
+  </si>
+  <si>
+    <t>Participação de sinistros Acidentes Pessoais</t>
+  </si>
+  <si>
+    <t>Participação de sinistros Vida Risco</t>
   </si>
 </sst>
 </file>
@@ -814,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AB1680-6FDB-4AAC-84B1-7D0AFBC3FE74}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -1074,7 +1120,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,8 +1185,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
+      <c r="A6" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>0</v>
@@ -1247,7 +1293,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,8 +1406,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
+      <c r="A6" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>0</v>
@@ -1548,7 +1594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59DE66B-4BFE-4DCA-B140-7BD69D8D520A}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -1706,6 +1752,123 @@
       </c>
       <c r="C14" t="s">
         <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FF74AA-A3D5-47A8-AC4E-67BB4F355C44}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/IntelligentProcessAutomationNLP/Automation/intencoes.xlsx
+++ b/IntelligentProcessAutomationNLP/Automation/intencoes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupecgi-my.sharepoint.com/personal/brunofilipe_lobo_cgi_com/Documents/Code/realvidaseguros/IntelligentProcessAutomationNLP/Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{92B364C3-1C7B-47BE-BE56-8461E9385117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FB4640F-7988-4F32-AF25-39A62DAC19C2}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{92B364C3-1C7B-47BE-BE56-8461E9385117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{524E2CAE-FC17-434F-8826-12B65057EC30}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B4B189BC-61F7-41C8-AD90-3CA3DB88E80F}"/>
+    <workbookView xWindow="32805" yWindow="1170" windowWidth="23175" windowHeight="13860" activeTab="5" xr2:uid="{B4B189BC-61F7-41C8-AD90-3CA3DB88E80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Anexos" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="IdentifAlternativa" sheetId="2" r:id="rId3"/>
     <sheet name="ApolAtivas" sheetId="3" r:id="rId4"/>
     <sheet name="IDTemplates" sheetId="4" r:id="rId5"/>
-    <sheet name="label_map" sheetId="6" r:id="rId6"/>
+    <sheet name="LabelMap" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -194,21 +194,6 @@
     <t>Anexo</t>
   </si>
   <si>
-    <t>\\Folder\Ficheiro 1.pdf</t>
-  </si>
-  <si>
-    <t>\\Folder\Ficheiro 2.pdf</t>
-  </si>
-  <si>
-    <t>\\Folder\Ficheiro 3.pdf</t>
-  </si>
-  <si>
-    <t>\\Folder\Ficheiro 4.pdf</t>
-  </si>
-  <si>
-    <t>\\Folder\Ficheiro 5.pdf</t>
-  </si>
-  <si>
     <t>Key</t>
   </si>
   <si>
@@ -252,6 +237,21 @@
   </si>
   <si>
     <t>Participação de sinistros Vida Risco</t>
+  </si>
+  <si>
+    <t>C:\Users\brunofilipe.lobo\OneDrive - CGI\Code\realvidaseguros\Anexos\Ficheiro1.docx;</t>
+  </si>
+  <si>
+    <t>C:\Users\brunofilipe.lobo\OneDrive - CGI\Code\realvidaseguros\Anexos\Ficheiro2.docx;</t>
+  </si>
+  <si>
+    <t>C:\Users\brunofilipe.lobo\OneDrive - CGI\Code\realvidaseguros\Anexos\Ficheiro3.docx;</t>
+  </si>
+  <si>
+    <t>C:\Users\brunofilipe.lobo\OneDrive - CGI\Code\realvidaseguros\Anexos\Ficheiro4.docx;</t>
+  </si>
+  <si>
+    <t>C:\Users\brunofilipe.lobo\OneDrive - CGI\Code\realvidaseguros\Anexos\Ficheiro5.docx;</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,16 +860,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AB1680-6FDB-4AAC-84B1-7D0AFBC3FE74}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -883,10 +883,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1053,10 +1053,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1070,10 +1070,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1087,10 +1087,10 @@
         <v>10</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1104,10 +1104,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1595,7 +1595,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,7 +1630,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1641,7 +1641,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1696,7 +1696,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1718,7 +1718,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1740,7 +1740,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1751,7 +1751,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1763,7 +1763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FF74AA-A3D5-47A8-AC4E-67BB4F355C44}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1771,13 +1771,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1793,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1801,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1809,7 +1809,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1817,10 +1817,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1828,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1836,7 +1836,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1844,7 +1844,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1852,7 +1852,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1860,7 +1860,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1868,7 +1868,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/IntelligentProcessAutomationNLP/Automation/intencoes.xlsx
+++ b/IntelligentProcessAutomationNLP/Automation/intencoes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupecgi-my.sharepoint.com/personal/brunofilipe_lobo_cgi_com/Documents/Code/realvidaseguros/IntelligentProcessAutomationNLP/Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{92B364C3-1C7B-47BE-BE56-8461E9385117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{524E2CAE-FC17-434F-8826-12B65057EC30}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{92B364C3-1C7B-47BE-BE56-8461E9385117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6781A65-247E-4977-BBC9-E6295B635688}"/>
   <bookViews>
-    <workbookView xWindow="32805" yWindow="1170" windowWidth="23175" windowHeight="13860" activeTab="5" xr2:uid="{B4B189BC-61F7-41C8-AD90-3CA3DB88E80F}"/>
+    <workbookView xWindow="-4305" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="5" xr2:uid="{B4B189BC-61F7-41C8-AD90-3CA3DB88E80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Anexos" sheetId="5" r:id="rId1"/>
@@ -1764,10 +1764,14 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
